--- a/RemplazoSKU-Color-Visual/ItemsDuda.xlsx
+++ b/RemplazoSKU-Color-Visual/ItemsDuda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\GitHub\Herramientas\RemplazoSKU-Color-Visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6469BC2B-18C4-4916-907A-8B4D8E3ED000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E7D15-1006-46F2-A67A-D9C416FC036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C23666E-78CA-42B5-9766-658CEEC99343}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,15 +446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C4B2EC03ECEB5F43A7923EE9226B317B" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="096aab91894bc214d22c37d9c03d1173">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2448b8c-58da-4df7-80e7-819d981921fc" xmlns:ns4="3108a68a-3664-4a20-8527-840bfdcd35e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0792b7a88aa3db2579c55fb755ed679" ns3:_="" ns4:_="">
     <xsd:import namespace="d2448b8c-58da-4df7-80e7-819d981921fc"/>
@@ -651,6 +642,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -658,14 +658,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132F6D49-486D-4813-B62F-5DBACE463529}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E27339-5E13-48F9-A0E7-8A2C50F354AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -684,6 +676,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132F6D49-486D-4813-B62F-5DBACE463529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E3EB809-9813-443C-A984-F602B664330F}">
   <ds:schemaRefs>
